--- a/particle_count_rmse_comparison.xlsx
+++ b/particle_count_rmse_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>5.893025017129252</v>
+        <v>6.11836811553145</v>
       </c>
       <c r="C2" t="n">
-        <v>7.299673276775758</v>
+        <v>7.020787812409777</v>
       </c>
       <c r="D2" t="n">
-        <v>6.737497588995702</v>
+        <v>7.461364666787741</v>
       </c>
       <c r="E2" t="n">
-        <v>3.915596384038034</v>
+        <v>4.019886721101209</v>
       </c>
       <c r="F2" t="n">
-        <v>6.212080420424244</v>
+        <v>6.098958727665739</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>4.588237692594955</v>
+        <v>4.562921304267495</v>
       </c>
       <c r="C3" t="n">
-        <v>4.69520945683403</v>
+        <v>5.016011772044045</v>
       </c>
       <c r="D3" t="n">
-        <v>6.012712734215858</v>
+        <v>6.474787141887241</v>
       </c>
       <c r="E3" t="n">
-        <v>2.749710000585625</v>
+        <v>2.819398179798644</v>
       </c>
       <c r="F3" t="n">
-        <v>4.735838144664488</v>
+        <v>4.835308348713562</v>
       </c>
     </row>
     <row r="4">
@@ -510,79 +510,79 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>3.422233636155713</v>
+        <v>3.737348672451994</v>
       </c>
       <c r="C4" t="n">
-        <v>3.897700752452931</v>
+        <v>3.928831316677405</v>
       </c>
       <c r="D4" t="n">
-        <v>5.399473767496522</v>
+        <v>6.134139539261414</v>
       </c>
       <c r="E4" t="n">
-        <v>2.410477827356496</v>
+        <v>2.570116752216482</v>
       </c>
       <c r="F4" t="n">
-        <v>3.518810204561809</v>
+        <v>4.117104741634013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>5.893025017129252</v>
+        <v>2.913558143821309</v>
       </c>
       <c r="C5" t="n">
-        <v>7.299673276775758</v>
+        <v>3.302728770075686</v>
       </c>
       <c r="D5" t="n">
-        <v>6.737497588995702</v>
+        <v>5.943158234973275</v>
       </c>
       <c r="E5" t="n">
-        <v>3.915596384038034</v>
+        <v>2.460762137900677</v>
       </c>
       <c r="F5" t="n">
-        <v>6.212080420424244</v>
+        <v>3.40705159248124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>5.893025017129252</v>
+        <v>2.416333128587103</v>
       </c>
       <c r="C6" t="n">
-        <v>7.299673276775758</v>
+        <v>2.567768331847866</v>
       </c>
       <c r="D6" t="n">
-        <v>6.737497588995702</v>
+        <v>4.771387653570452</v>
       </c>
       <c r="E6" t="n">
-        <v>3.915596384038034</v>
+        <v>2.425569170999432</v>
       </c>
       <c r="F6" t="n">
-        <v>6.212080420424244</v>
+        <v>2.957637495548623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>5.893025017129252</v>
+        <v>2.498128321122195</v>
       </c>
       <c r="C7" t="n">
-        <v>7.299673276775758</v>
+        <v>2.496463234914431</v>
       </c>
       <c r="D7" t="n">
-        <v>6.737497588995702</v>
+        <v>4.916247405864876</v>
       </c>
       <c r="E7" t="n">
-        <v>3.915596384038034</v>
+        <v>2.370917501295326</v>
       </c>
       <c r="F7" t="n">
-        <v>6.212080420424244</v>
+        <v>2.715000081415251</v>
       </c>
     </row>
   </sheetData>

--- a/particle_count_rmse_comparison.xlsx
+++ b/particle_count_rmse_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>6.11836811553145</v>
+        <v>3.396781449327992</v>
       </c>
       <c r="C2" t="n">
-        <v>7.020787812409777</v>
+        <v>3.715498410685984</v>
       </c>
       <c r="D2" t="n">
-        <v>7.461364666787741</v>
+        <v>3.587092399893759</v>
       </c>
       <c r="E2" t="n">
-        <v>4.019886721101209</v>
+        <v>2.560324588656751</v>
       </c>
       <c r="F2" t="n">
-        <v>6.098958727665739</v>
+        <v>3.41961008813053</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>4.562921304267495</v>
+        <v>2.234969441052847</v>
       </c>
       <c r="C3" t="n">
-        <v>5.016011772044045</v>
+        <v>3.09490381103471</v>
       </c>
       <c r="D3" t="n">
-        <v>6.474787141887241</v>
+        <v>3.44917389787401</v>
       </c>
       <c r="E3" t="n">
-        <v>2.819398179798644</v>
+        <v>1.694785166637352</v>
       </c>
       <c r="F3" t="n">
-        <v>4.835308348713562</v>
+        <v>2.197814579155574</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>3.737348672451994</v>
+        <v>1.803110381541863</v>
       </c>
       <c r="C4" t="n">
-        <v>3.928831316677405</v>
+        <v>2.539937565579926</v>
       </c>
       <c r="D4" t="n">
-        <v>6.134139539261414</v>
+        <v>3.355028692706826</v>
       </c>
       <c r="E4" t="n">
-        <v>2.570116752216482</v>
+        <v>1.444930830124354</v>
       </c>
       <c r="F4" t="n">
-        <v>4.117104741634013</v>
+        <v>1.769888813166332</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>2.913558143821309</v>
+        <v>1.490404987385676</v>
       </c>
       <c r="C5" t="n">
-        <v>3.302728770075686</v>
+        <v>1.98892179508162</v>
       </c>
       <c r="D5" t="n">
-        <v>5.943158234973275</v>
+        <v>3.135468477348919</v>
       </c>
       <c r="E5" t="n">
-        <v>2.460762137900677</v>
+        <v>1.267352143243712</v>
       </c>
       <c r="F5" t="n">
-        <v>3.40705159248124</v>
+        <v>1.445862581025042</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>2.416333128587103</v>
+        <v>1.269756848241601</v>
       </c>
       <c r="C6" t="n">
-        <v>2.567768331847866</v>
+        <v>1.606988246308942</v>
       </c>
       <c r="D6" t="n">
-        <v>4.771387653570452</v>
+        <v>3.01557907328573</v>
       </c>
       <c r="E6" t="n">
-        <v>2.425569170999432</v>
+        <v>1.199022675856521</v>
       </c>
       <c r="F6" t="n">
-        <v>2.957637495548623</v>
+        <v>1.211575885365718</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>2.498128321122195</v>
+        <v>1.196675082665221</v>
       </c>
       <c r="C7" t="n">
-        <v>2.496463234914431</v>
+        <v>1.432993529110761</v>
       </c>
       <c r="D7" t="n">
-        <v>4.916247405864876</v>
+        <v>2.934607968040498</v>
       </c>
       <c r="E7" t="n">
-        <v>2.370917501295326</v>
+        <v>1.197532605561919</v>
       </c>
       <c r="F7" t="n">
-        <v>2.715000081415251</v>
+        <v>1.187224653054956</v>
       </c>
     </row>
   </sheetData>
